--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-F3.xlsx
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>11.28709566666667</v>
+        <v>0.2054816666666667</v>
       </c>
       <c r="N2">
-        <v>33.861287</v>
+        <v>0.616445</v>
       </c>
       <c r="O2">
-        <v>0.2158446779538137</v>
+        <v>0.00496424614546655</v>
       </c>
       <c r="P2">
-        <v>0.2158446779538137</v>
+        <v>0.004964246145466549</v>
       </c>
       <c r="Q2">
-        <v>0.1594791370395556</v>
+        <v>0.002903318962222222</v>
       </c>
       <c r="R2">
-        <v>1.435312233356</v>
+        <v>0.02612987066</v>
       </c>
       <c r="S2">
-        <v>0.2158446779538137</v>
+        <v>0.00496424614546655</v>
       </c>
       <c r="T2">
-        <v>0.2158446779538137</v>
+        <v>0.004964246145466549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>118.338787</v>
       </c>
       <c r="O3">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799925</v>
       </c>
       <c r="P3">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799924</v>
       </c>
       <c r="Q3">
         <v>0.5573493892617778</v>
@@ -635,10 +635,10 @@
         <v>5.016144503356</v>
       </c>
       <c r="S3">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799925</v>
       </c>
       <c r="T3">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.433165333333333</v>
+        <v>1.712817</v>
       </c>
       <c r="N4">
-        <v>4.299496</v>
+        <v>5.138451</v>
       </c>
       <c r="O4">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="P4">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="Q4">
-        <v>0.02024967071644444</v>
+        <v>0.024200962332</v>
       </c>
       <c r="R4">
-        <v>0.182247036448</v>
+        <v>0.217808660988</v>
       </c>
       <c r="S4">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="T4">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.126152</v>
+        <v>0.02775933333333333</v>
       </c>
       <c r="N5">
-        <v>0.378456</v>
+        <v>0.083278</v>
       </c>
       <c r="O5">
-        <v>0.002412421992102324</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="P5">
-        <v>0.002412421992102323</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="Q5">
-        <v>0.001782443658666667</v>
+        <v>0.0003922208737777778</v>
       </c>
       <c r="R5">
-        <v>0.016041992928</v>
+        <v>0.003529987864000001</v>
       </c>
       <c r="S5">
-        <v>0.002412421992102324</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="T5">
-        <v>0.002412421992102323</v>
+        <v>0.000670639701031176</v>
       </c>
     </row>
   </sheetData>
